--- a/game/Decide/Decide/Asset/Data/PlayerParameter.xlsx
+++ b/game/Decide/Decide/Asset/Data/PlayerParameter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1894,7 +1894,7 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+      <selection activeCell="N104" sqref="N104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4598,7 +4598,7 @@
         <v>10</v>
       </c>
       <c r="I45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J45">
         <v>44</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="4"/>
-        <v>2080/229/228/224/224/230/10/10/44</v>
+        <v>2080/229/228/224/224/230/10/5/44</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.4">
